--- a/Results/Final Results/Samples/100Scen/Results_Sample100_07.xlsx
+++ b/Results/Final Results/Samples/100Scen/Results_Sample100_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\6.Semester\Bachelor-Arbeit\bachelor-thesis\bachelor-thesis\Results\Final Results\Samples\100Scen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B2BC2A-F0F5-49E0-802A-BEFE8C655C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC7DE64-CEEC-43B1-A028-2649CAB31E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>Omega</t>
   </si>
@@ -155,13 +155,7 @@
     <t>Steprule</t>
   </si>
   <si>
-    <t>Nullhypothesis: (MeanGap)_LR &lt;= (MeanGap)_Naive</t>
-  </si>
-  <si>
     <t>unable to reject</t>
-  </si>
-  <si>
-    <t>NOCH NICHT GEMACHT</t>
   </si>
   <si>
     <t>Steprules (x,y)</t>
@@ -261,6 +255,9 @@
   </si>
   <si>
     <t>6,5</t>
+  </si>
+  <si>
+    <t>Nullhypothesis: (MeanGap)_LR &gt; (MeanGap)_Naive</t>
   </si>
 </sst>
 </file>
@@ -664,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T121"/>
+  <dimension ref="A1:S121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T42" sqref="Q1:T42"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -690,7 +687,7 @@
     <col min="19" max="19" width="23.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -743,10 +740,10 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -793,7 +790,7 @@
         <v>283.62285000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>100</v>
       </c>
@@ -843,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>100</v>
       </c>
@@ -893,10 +890,10 @@
         <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>100</v>
       </c>
@@ -943,13 +940,10 @@
         <v>3</v>
       </c>
       <c r="S5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>100</v>
       </c>
@@ -996,10 +990,10 @@
         <v>4</v>
       </c>
       <c r="S6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>100</v>
       </c>
@@ -1046,10 +1040,10 @@
         <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1099,10 +1093,10 @@
         <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>100</v>
       </c>
@@ -1146,7 +1140,7 @@
         <v>281.98865000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>100</v>
       </c>
@@ -1190,7 +1184,7 @@
         <v>281.98865000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>100</v>
       </c>
@@ -1237,13 +1231,13 @@
         <v>15</v>
       </c>
       <c r="R11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>100</v>
       </c>
@@ -1287,7 +1281,7 @@
         <v>281.98865000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>100</v>
       </c>
@@ -1334,13 +1328,13 @@
         <v>0.05</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1387,13 +1381,13 @@
         <v>283.28921000000003</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>100</v>
       </c>
@@ -1437,13 +1431,13 @@
         <v>283.28921000000003</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>100</v>
       </c>
@@ -1487,10 +1481,10 @@
         <v>283.28921000000003</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -1537,10 +1531,10 @@
         <v>283.28921000000003</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -1587,10 +1581,10 @@
         <v>283.28921000000003</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
@@ -1637,10 +1631,10 @@
         <v>283.28921000000003</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -1690,10 +1684,10 @@
         <v>285.58792999999997</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
@@ -1740,10 +1734,10 @@
         <v>285.58792999999997</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -1790,10 +1784,10 @@
         <v>285.58792999999997</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
@@ -1840,10 +1834,10 @@
         <v>285.58792999999997</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -1890,10 +1884,10 @@
         <v>285.58792999999997</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -1940,10 +1934,10 @@
         <v>285.58792999999997</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
@@ -1993,10 +1987,10 @@
         <v>280.80655000000002</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
@@ -2043,10 +2037,10 @@
         <v>280.80655000000002</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
@@ -2093,10 +2087,10 @@
         <v>280.80655000000002</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
@@ -2143,10 +2137,10 @@
         <v>280.80655000000002</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -2193,10 +2187,10 @@
         <v>280.80655000000002</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
@@ -2243,10 +2237,10 @@
         <v>280.80655000000002</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
@@ -2296,10 +2290,10 @@
         <v>283.78881999999999</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
@@ -2346,10 +2340,10 @@
         <v>283.78881999999999</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
@@ -2396,10 +2390,10 @@
         <v>283.78881999999999</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
@@ -2446,10 +2440,10 @@
         <v>283.78881999999999</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
@@ -2496,10 +2490,10 @@
         <v>283.78881999999999</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
@@ -2546,10 +2540,10 @@
         <v>283.78881999999999</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
@@ -2599,10 +2593,10 @@
         <v>282.12195000000003</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
@@ -2649,10 +2643,10 @@
         <v>282.12195000000003</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
@@ -2699,10 +2693,10 @@
         <v>282.12195000000003</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
@@ -2749,10 +2743,10 @@
         <v>282.12195000000003</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
@@ -2799,10 +2793,10 @@
         <v>282.12195000000003</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">

--- a/Results/Final Results/Samples/100Scen/Results_Sample100_07.xlsx
+++ b/Results/Final Results/Samples/100Scen/Results_Sample100_07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\6.Semester\Bachelor-Arbeit\bachelor-thesis\bachelor-thesis\Results\Final Results\Samples\100Scen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC7DE64-CEEC-43B1-A028-2649CAB31E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97BE9CD-E015-41F3-9F48-D570FA81BB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestingFile3" sheetId="2" r:id="rId1"/>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Results/Final Results/Samples/100Scen/Results_Sample100_07.xlsx
+++ b/Results/Final Results/Samples/100Scen/Results_Sample100_07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\6.Semester\Bachelor-Arbeit\bachelor-thesis\bachelor-thesis\Results\Final Results\Samples\100Scen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97BE9CD-E015-41F3-9F48-D570FA81BB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69AF5C4-2625-434E-9333-C9355A9F7059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2950" yWindow="10560" windowWidth="9600" windowHeight="4910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestingFile3" sheetId="2" r:id="rId1"/>
@@ -264,7 +264,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,12 +280,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -290,10 +303,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,11 +315,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -350,11 +374,11 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Step Size Rule" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Iterations" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Converged?" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="Gap LR" queryTableFieldId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="Gap LR" queryTableFieldId="6" dataDxfId="0" dataCellStyle="Prozent"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="7" name="Gap Naive" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" uniqueName="8" name="Obj. Naive" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" uniqueName="9" name="Obj. LR" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" uniqueName="10" name="Gap" queryTableFieldId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" uniqueName="10" name="Gap" queryTableFieldId="10" dataDxfId="1" dataCellStyle="Prozent"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" uniqueName="11" name="Time Naive" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" uniqueName="12" name="Time LR" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" uniqueName="13" name="Final Lambda" queryTableFieldId="13"/>
@@ -663,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -674,11 +698,11 @@
     <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
@@ -706,7 +730,7 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
@@ -718,7 +742,7 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L1" t="s">
@@ -762,7 +786,7 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>4.5310000000000003E-2</v>
       </c>
       <c r="H2">
@@ -774,7 +798,7 @@
       <c r="J2">
         <v>297.08526000000001</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>4.2439999999999999E-2</v>
       </c>
       <c r="L2">
@@ -806,7 +830,7 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>3.5099999999999999E-2</v>
       </c>
       <c r="H3">
@@ -818,7 +842,7 @@
       <c r="J3">
         <v>293.94139000000001</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>3.2199999999999999E-2</v>
       </c>
       <c r="L3">
@@ -859,7 +883,7 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>4.0930000000000001E-2</v>
       </c>
       <c r="H4">
@@ -871,7 +895,7 @@
       <c r="J4">
         <v>295.72572000000002</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>3.8030000000000001E-2</v>
       </c>
       <c r="L4">
@@ -909,7 +933,7 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>3.8530000000000002E-2</v>
       </c>
       <c r="H5">
@@ -921,7 +945,7 @@
       <c r="J5">
         <v>294.98887999999999</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>3.5630000000000002E-2</v>
       </c>
       <c r="L5">
@@ -959,7 +983,7 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>3.517E-2</v>
       </c>
       <c r="H6">
@@ -971,7 +995,7 @@
       <c r="J6">
         <v>293.96289000000002</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>3.227E-2</v>
       </c>
       <c r="L6">
@@ -1009,7 +1033,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>3.6549999999999999E-2</v>
       </c>
       <c r="H7">
@@ -1021,7 +1045,7 @@
       <c r="J7">
         <v>294.38153999999997</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>3.3640000000000003E-2</v>
       </c>
       <c r="L7">
@@ -1062,7 +1086,7 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>4.172E-2</v>
       </c>
       <c r="H8">
@@ -1074,7 +1098,7 @@
       <c r="J8">
         <v>294.26557000000003</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>4.0189999999999997E-2</v>
       </c>
       <c r="L8">
@@ -1112,7 +1136,7 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>3.177E-2</v>
       </c>
       <c r="H9">
@@ -1124,7 +1148,7 @@
       <c r="J9">
         <v>291.24137999999999</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>3.022E-2</v>
       </c>
       <c r="L9">
@@ -1156,7 +1180,7 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>3.8359999999999998E-2</v>
       </c>
       <c r="H10">
@@ -1168,7 +1192,7 @@
       <c r="J10">
         <v>293.23817000000003</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>3.6819999999999999E-2</v>
       </c>
       <c r="L10">
@@ -1200,7 +1224,7 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>3.5529999999999999E-2</v>
       </c>
       <c r="H11">
@@ -1212,7 +1236,7 @@
       <c r="J11">
         <v>292.37747999999999</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>3.3989999999999999E-2</v>
       </c>
       <c r="L11">
@@ -1253,7 +1277,7 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>3.159E-2</v>
       </c>
       <c r="H12">
@@ -1265,7 +1289,7 @@
       <c r="J12">
         <v>291.18761999999998</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>3.0040000000000001E-2</v>
       </c>
       <c r="L12">
@@ -1297,7 +1321,7 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>3.322E-2</v>
       </c>
       <c r="H13">
@@ -1309,7 +1333,7 @@
       <c r="J13">
         <v>291.67842999999999</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>3.1669999999999997E-2</v>
       </c>
       <c r="L13">
@@ -1353,7 +1377,7 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>4.0219999999999999E-2</v>
       </c>
       <c r="H14">
@@ -1365,7 +1389,7 @@
       <c r="J14">
         <v>295.16064999999998</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="4">
         <v>4.0219999999999999E-2</v>
       </c>
       <c r="L14">
@@ -1403,7 +1427,7 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>3.1350000000000003E-2</v>
       </c>
       <c r="H15">
@@ -1415,7 +1439,7 @@
       <c r="J15">
         <v>292.45724000000001</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>3.1350000000000003E-2</v>
       </c>
       <c r="L15">
@@ -1453,7 +1477,7 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>3.8240000000000003E-2</v>
       </c>
       <c r="H16">
@@ -1465,7 +1489,7 @@
       <c r="J16">
         <v>294.55417999999997</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>3.8240000000000003E-2</v>
       </c>
       <c r="L16">
@@ -1503,7 +1527,7 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>3.5099999999999999E-2</v>
       </c>
       <c r="H17">
@@ -1515,7 +1539,7 @@
       <c r="J17">
         <v>293.59379000000001</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>3.5099999999999999E-2</v>
       </c>
       <c r="L17">
@@ -1553,7 +1577,7 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>3.1419999999999997E-2</v>
       </c>
       <c r="H18">
@@ -1565,7 +1589,7 @@
       <c r="J18">
         <v>292.47874999999999</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>3.1419999999999997E-2</v>
       </c>
       <c r="L18">
@@ -1603,7 +1627,7 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>3.2590000000000001E-2</v>
       </c>
       <c r="H19">
@@ -1615,7 +1639,7 @@
       <c r="J19">
         <v>292.83240000000001</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>3.2590000000000001E-2</v>
       </c>
       <c r="L19">
@@ -1656,7 +1680,7 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>3.3989999999999999E-2</v>
       </c>
       <c r="H20">
@@ -1668,7 +1692,7 @@
       <c r="J20">
         <v>295.63749000000001</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="4">
         <v>3.3989999999999999E-2</v>
       </c>
       <c r="L20">
@@ -1706,7 +1730,7 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>2.299E-2</v>
       </c>
       <c r="H21">
@@ -1718,7 +1742,7 @@
       <c r="J21">
         <v>292.30765000000002</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>2.299E-2</v>
       </c>
       <c r="L21">
@@ -1756,7 +1780,7 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>2.988E-2</v>
       </c>
       <c r="H22">
@@ -1768,7 +1792,7 @@
       <c r="J22">
         <v>294.38508000000002</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>2.988E-2</v>
       </c>
       <c r="L22">
@@ -1806,7 +1830,7 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>2.7040000000000002E-2</v>
       </c>
       <c r="H23">
@@ -1818,7 +1842,7 @@
       <c r="J23">
         <v>293.52438999999998</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <v>2.7040000000000002E-2</v>
       </c>
       <c r="L23">
@@ -1856,7 +1880,7 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>2.308E-2</v>
       </c>
       <c r="H24">
@@ -1868,7 +1892,7 @@
       <c r="J24">
         <v>292.33452999999997</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <v>2.308E-2</v>
       </c>
       <c r="L24">
@@ -1906,7 +1930,7 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>2.418E-2</v>
       </c>
       <c r="H25">
@@ -1918,7 +1942,7 @@
       <c r="J25">
         <v>292.66345000000001</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <v>2.418E-2</v>
       </c>
       <c r="L25">
@@ -1959,7 +1983,7 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>4.5350000000000001E-2</v>
       </c>
       <c r="H26">
@@ -1971,7 +1995,7 @@
       <c r="J26">
         <v>294.1463</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="4">
         <v>4.3490000000000001E-2</v>
       </c>
       <c r="L26">
@@ -2009,7 +2033,7 @@
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>3.603E-2</v>
       </c>
       <c r="H27">
@@ -2021,7 +2045,7 @@
       <c r="J27">
         <v>291.30243000000002</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <v>3.415E-2</v>
       </c>
       <c r="L27">
@@ -2059,7 +2083,7 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>4.19E-2</v>
       </c>
       <c r="H28">
@@ -2071,7 +2095,7 @@
       <c r="J28">
         <v>293.08676000000003</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>4.0030000000000003E-2</v>
       </c>
       <c r="L28">
@@ -2109,7 +2133,7 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>3.9480000000000001E-2</v>
       </c>
       <c r="H29">
@@ -2121,7 +2145,7 @@
       <c r="J29">
         <v>292.34992</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <v>3.7609999999999998E-2</v>
       </c>
       <c r="L29">
@@ -2159,7 +2183,7 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>3.5889999999999998E-2</v>
       </c>
       <c r="H30">
@@ -2171,7 +2195,7 @@
       <c r="J30">
         <v>291.25941999999998</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <v>3.4009999999999999E-2</v>
       </c>
       <c r="L30">
@@ -2209,7 +2233,7 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>3.7359999999999997E-2</v>
       </c>
       <c r="H31">
@@ -2221,7 +2245,7 @@
       <c r="J31">
         <v>291.70537000000002</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <v>3.5479999999999998E-2</v>
       </c>
       <c r="L31">
@@ -2262,7 +2286,7 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>2.7349999999999999E-2</v>
       </c>
       <c r="H32">
@@ -2274,7 +2298,7 @@
       <c r="J32">
         <v>291.76954000000001</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="4">
         <v>2.7349999999999999E-2</v>
       </c>
       <c r="L32">
@@ -2312,7 +2336,7 @@
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>2.061E-2</v>
       </c>
       <c r="H33">
@@ -2324,7 +2348,7 @@
       <c r="J33">
         <v>289.75936999999999</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <v>2.061E-2</v>
       </c>
       <c r="L33">
@@ -2362,7 +2386,7 @@
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>2.5680000000000001E-2</v>
       </c>
       <c r="H34">
@@ -2374,7 +2398,7 @@
       <c r="J34">
         <v>291.26781999999997</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <v>2.5680000000000001E-2</v>
       </c>
       <c r="L34">
@@ -2412,7 +2436,7 @@
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>2.2200000000000001E-2</v>
       </c>
       <c r="H35">
@@ -2424,7 +2448,7 @@
       <c r="J35">
         <v>290.23187000000001</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <v>2.2200000000000001E-2</v>
       </c>
       <c r="L35">
@@ -2462,7 +2486,7 @@
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="H36">
@@ -2474,7 +2498,7 @@
       <c r="J36">
         <v>288.99099000000001</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="L36">
@@ -2512,7 +2536,7 @@
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>1.9220000000000001E-2</v>
       </c>
       <c r="H37">
@@ -2524,7 +2548,7 @@
       <c r="J37">
         <v>289.35005999999998</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="3">
         <v>1.9220000000000001E-2</v>
       </c>
       <c r="L37">
@@ -2565,7 +2589,7 @@
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>4.8480000000000002E-2</v>
       </c>
       <c r="H38">
@@ -2577,7 +2601,7 @@
       <c r="J38">
         <v>296.49642999999998</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="4">
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="L38">
@@ -2615,7 +2639,7 @@
       <c r="F39">
         <v>0</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>3.7530000000000001E-2</v>
       </c>
       <c r="H39">
@@ -2627,7 +2651,7 @@
       <c r="J39">
         <v>293.12383999999997</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="3">
         <v>3.5319999999999997E-2</v>
       </c>
       <c r="L39">
@@ -2665,7 +2689,7 @@
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>4.5370000000000001E-2</v>
       </c>
       <c r="H40">
@@ -2677,7 +2701,7 @@
       <c r="J40">
         <v>295.52996000000002</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="3">
         <v>4.3180000000000003E-2</v>
       </c>
       <c r="L40">
@@ -2696,7 +2720,7 @@
         <v>48</v>
       </c>
       <c r="S40" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
@@ -2715,7 +2739,7 @@
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
         <v>4.2259999999999999E-2</v>
       </c>
       <c r="H41">
@@ -2727,7 +2751,7 @@
       <c r="J41">
         <v>294.56957</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="3">
         <v>4.0059999999999998E-2</v>
       </c>
       <c r="L41">
@@ -2765,7 +2789,7 @@
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <v>3.764E-2</v>
       </c>
       <c r="H42">
@@ -2777,7 +2801,7 @@
       <c r="J42">
         <v>293.15609999999998</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
         <v>3.5430000000000003E-2</v>
       </c>
       <c r="L42">
@@ -2815,7 +2839,7 @@
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <v>3.9849999999999997E-2</v>
       </c>
       <c r="H43">
@@ -2827,7 +2851,7 @@
       <c r="J43">
         <v>293.83256</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="3">
         <v>3.7650000000000003E-2</v>
       </c>
       <c r="L43">
@@ -2862,7 +2886,7 @@
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="3">
         <v>6.2670000000000003E-2</v>
       </c>
       <c r="H44">
@@ -2874,7 +2898,7 @@
       <c r="J44">
         <v>299.98493000000002</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="4">
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="L44">
@@ -2906,7 +2930,7 @@
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="3">
         <v>5.2170000000000001E-2</v>
       </c>
       <c r="H45">
@@ -2918,7 +2942,7 @@
       <c r="J45">
         <v>296.66444000000001</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
         <v>4.9169999999999998E-2</v>
       </c>
       <c r="L45">
@@ -2950,7 +2974,7 @@
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="3">
         <v>6.1100000000000002E-2</v>
       </c>
       <c r="H46">
@@ -2962,7 +2986,7 @@
       <c r="J46">
         <v>299.48320999999999</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="3">
         <v>5.8119999999999998E-2</v>
       </c>
       <c r="L46">
@@ -2994,7 +3018,7 @@
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="3">
         <v>5.7840000000000003E-2</v>
       </c>
       <c r="H47">
@@ -3006,7 +3030,7 @@
       <c r="J47">
         <v>298.44726000000003</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <v>5.4850000000000003E-2</v>
       </c>
       <c r="L47">
@@ -3038,7 +3062,7 @@
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
         <v>5.253E-2</v>
       </c>
       <c r="H48">
@@ -3050,7 +3074,7 @@
       <c r="J48">
         <v>296.77735000000001</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="3">
         <v>4.9540000000000001E-2</v>
       </c>
       <c r="L48">
@@ -3082,7 +3106,7 @@
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <v>5.5620000000000003E-2</v>
       </c>
       <c r="H49">
@@ -3094,7 +3118,7 @@
       <c r="J49">
         <v>297.74835000000002</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <v>5.2639999999999999E-2</v>
       </c>
       <c r="L49">
@@ -3129,7 +3153,7 @@
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="3">
         <v>6.4680000000000001E-2</v>
       </c>
       <c r="H50">
@@ -3141,7 +3165,7 @@
       <c r="J50">
         <v>301.58947999999998</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="4">
         <v>6.0519999999999997E-2</v>
       </c>
       <c r="L50">
@@ -3173,7 +3197,7 @@
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="3">
         <v>5.4269999999999999E-2</v>
       </c>
       <c r="H51">
@@ -3185,7 +3209,7 @@
       <c r="J51">
         <v>298.26898999999997</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="3">
         <v>5.006E-2</v>
       </c>
       <c r="L51">
@@ -3217,7 +3241,7 @@
       <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="3">
         <v>6.3130000000000006E-2</v>
       </c>
       <c r="H52">
@@ -3229,7 +3253,7 @@
       <c r="J52">
         <v>301.08776</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="3">
         <v>5.8950000000000002E-2</v>
       </c>
       <c r="L52">
@@ -3261,7 +3285,7 @@
       <c r="F53">
         <v>0</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="3">
         <v>5.9889999999999999E-2</v>
       </c>
       <c r="H53">
@@ -3273,7 +3297,7 @@
       <c r="J53">
         <v>300.05180999999999</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="3">
         <v>5.57E-2</v>
       </c>
       <c r="L53">
@@ -3305,7 +3329,7 @@
       <c r="F54">
         <v>0</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="3">
         <v>5.4629999999999998E-2</v>
       </c>
       <c r="H54">
@@ -3317,7 +3341,7 @@
       <c r="J54">
         <v>298.38189</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="3">
         <v>5.042E-2</v>
       </c>
       <c r="L54">
@@ -3349,7 +3373,7 @@
       <c r="F55">
         <v>0</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="3">
         <v>5.8020000000000002E-2</v>
       </c>
       <c r="H55">
@@ -3361,7 +3385,7 @@
       <c r="J55">
         <v>299.45632999999998</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="3">
         <v>5.382E-2</v>
       </c>
       <c r="L55">
@@ -3396,7 +3420,7 @@
       <c r="F56">
         <v>0</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="3">
         <v>5.1330000000000001E-2</v>
       </c>
       <c r="H56">
@@ -3408,7 +3432,7 @@
       <c r="J56">
         <v>299.06328999999999</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="4">
         <v>5.04E-2</v>
       </c>
       <c r="L56">
@@ -3440,7 +3464,7 @@
       <c r="F57">
         <v>0</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="3">
         <v>4.2259999999999999E-2</v>
       </c>
       <c r="H57">
@@ -3452,7 +3476,7 @@
       <c r="J57">
         <v>296.23070999999999</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="3">
         <v>4.1309999999999999E-2</v>
       </c>
       <c r="L57">
@@ -3484,7 +3508,7 @@
       <c r="F58">
         <v>0</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="3">
         <v>4.9970000000000001E-2</v>
       </c>
       <c r="H58">
@@ -3496,7 +3520,7 @@
       <c r="J58">
         <v>298.63682</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="3">
         <v>4.904E-2</v>
       </c>
       <c r="L58">
@@ -3528,7 +3552,7 @@
       <c r="F59">
         <v>0</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="3">
         <v>4.691E-2</v>
       </c>
       <c r="H59">
@@ -3540,7 +3564,7 @@
       <c r="J59">
         <v>297.67642999999998</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="3">
         <v>4.5969999999999997E-2</v>
       </c>
       <c r="L59">
@@ -3572,7 +3596,7 @@
       <c r="F60">
         <v>0</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="3">
         <v>4.2360000000000002E-2</v>
       </c>
       <c r="H60">
@@ -3584,7 +3608,7 @@
       <c r="J60">
         <v>296.26297</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="3">
         <v>4.1419999999999998E-2</v>
       </c>
       <c r="L60">
@@ -3616,7 +3640,7 @@
       <c r="F61">
         <v>0</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="3">
         <v>4.4720000000000003E-2</v>
       </c>
       <c r="H61">
@@ -3628,7 +3652,7 @@
       <c r="J61">
         <v>296.99342999999999</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="3">
         <v>4.3779999999999999E-2</v>
       </c>
       <c r="L61">
@@ -3663,7 +3687,7 @@
       <c r="F62">
         <v>0</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="3">
         <v>5.3129999999999997E-2</v>
       </c>
       <c r="H62">
@@ -3675,7 +3699,7 @@
       <c r="J62">
         <v>296.67606000000001</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="4">
         <v>5.3129999999999997E-2</v>
       </c>
       <c r="L62">
@@ -3707,7 +3731,7 @@
       <c r="F63">
         <v>0</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="3">
         <v>4.2779999999999999E-2</v>
       </c>
       <c r="H63">
@@ -3719,7 +3743,7 @@
       <c r="J63">
         <v>293.46848</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="3">
         <v>4.2779999999999999E-2</v>
       </c>
       <c r="L63">
@@ -3751,7 +3775,7 @@
       <c r="F64">
         <v>0</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="3">
         <v>5.1520000000000003E-2</v>
       </c>
       <c r="H64">
@@ -3763,7 +3787,7 @@
       <c r="J64">
         <v>296.17433999999997</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="3">
         <v>5.1520000000000003E-2</v>
       </c>
       <c r="L64">
@@ -3795,7 +3819,7 @@
       <c r="F65">
         <v>0</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="3">
         <v>4.8189999999999997E-2</v>
       </c>
       <c r="H65">
@@ -3807,7 +3831,7 @@
       <c r="J65">
         <v>295.13839000000002</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="3">
         <v>4.8189999999999997E-2</v>
       </c>
       <c r="L65">
@@ -3839,7 +3863,7 @@
       <c r="F66">
         <v>0</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="3">
         <v>4.2779999999999999E-2</v>
       </c>
       <c r="H66">
@@ -3851,7 +3875,7 @@
       <c r="J66">
         <v>293.46848</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="3">
         <v>4.2779999999999999E-2</v>
       </c>
       <c r="L66">
@@ -3883,7 +3907,7 @@
       <c r="F67">
         <v>0</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="3">
         <v>4.58E-2</v>
       </c>
       <c r="H67">
@@ -3895,7 +3919,7 @@
       <c r="J67">
         <v>294.39821000000001</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="3">
         <v>4.58E-2</v>
       </c>
       <c r="L67">
@@ -3930,7 +3954,7 @@
       <c r="F68">
         <v>0</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="3">
         <v>3.6749999999999998E-2</v>
       </c>
       <c r="H68">
@@ -3942,7 +3966,7 @@
       <c r="J68">
         <v>294.40786000000003</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="4">
         <v>3.6749999999999998E-2</v>
       </c>
       <c r="L68">
@@ -3974,7 +3998,7 @@
       <c r="F69">
         <v>0</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="3">
         <v>2.6239999999999999E-2</v>
       </c>
       <c r="H69">
@@ -3986,7 +4010,7 @@
       <c r="J69">
         <v>291.22883000000002</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="3">
         <v>2.6239999999999999E-2</v>
       </c>
       <c r="L69">
@@ -4018,7 +4042,7 @@
       <c r="F70">
         <v>0</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="3">
         <v>3.3579999999999999E-2</v>
       </c>
       <c r="H70">
@@ -4030,7 +4054,7 @@
       <c r="J70">
         <v>293.44139000000001</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="3">
         <v>3.3579999999999999E-2</v>
       </c>
       <c r="L70">
@@ -4062,7 +4086,7 @@
       <c r="F71">
         <v>0</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="3">
         <v>3.04E-2</v>
       </c>
       <c r="H71">
@@ -4074,7 +4098,7 @@
       <c r="J71">
         <v>292.48099999999999</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="3">
         <v>3.04E-2</v>
       </c>
       <c r="L71">
@@ -4106,7 +4130,7 @@
       <c r="F72">
         <v>0</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="3">
         <v>2.6280000000000001E-2</v>
       </c>
       <c r="H72">
@@ -4118,7 +4142,7 @@
       <c r="J72">
         <v>291.24173000000002</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="3">
         <v>2.6280000000000001E-2</v>
       </c>
       <c r="L72">
@@ -4150,7 +4174,7 @@
       <c r="F73">
         <v>0</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="3">
         <v>2.7820000000000001E-2</v>
       </c>
       <c r="H73">
@@ -4162,7 +4186,7 @@
       <c r="J73">
         <v>291.70308999999997</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="3">
         <v>2.7820000000000001E-2</v>
       </c>
       <c r="L73">
@@ -4197,7 +4221,7 @@
       <c r="F74">
         <v>0</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="3">
         <v>4.6010000000000002E-2</v>
       </c>
       <c r="H74">
@@ -4209,7 +4233,7 @@
       <c r="J74">
         <v>297.87405000000001</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="4">
         <v>4.3159999999999997E-2</v>
       </c>
       <c r="L74">
@@ -4241,7 +4265,7 @@
       <c r="F75">
         <v>0</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="3">
         <v>3.4959999999999998E-2</v>
       </c>
       <c r="H75">
@@ -4253,7 +4277,7 @@
       <c r="J75">
         <v>294.46357</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="3">
         <v>3.2079999999999997E-2</v>
       </c>
       <c r="L75">
@@ -4285,7 +4309,7 @@
       <c r="F76">
         <v>0</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="3">
         <v>4.199E-2</v>
       </c>
       <c r="H76">
@@ -4297,7 +4321,7 @@
       <c r="J76">
         <v>296.62164000000001</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="3">
         <v>3.9120000000000002E-2</v>
       </c>
       <c r="L76">
@@ -4329,7 +4353,7 @@
       <c r="F77">
         <v>0</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="3">
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="H77">
@@ -4341,7 +4365,7 @@
       <c r="J77">
         <v>295.76096000000001</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="3">
         <v>3.6330000000000001E-2</v>
       </c>
       <c r="L77">
@@ -4373,7 +4397,7 @@
       <c r="F78">
         <v>0</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="3">
         <v>3.5049999999999998E-2</v>
       </c>
       <c r="H78">
@@ -4385,7 +4409,7 @@
       <c r="J78">
         <v>294.49045000000001</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="3">
         <v>3.2169999999999997E-2</v>
       </c>
       <c r="L78">
@@ -4417,7 +4441,7 @@
       <c r="F79">
         <v>0</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="3">
         <v>3.6740000000000002E-2</v>
       </c>
       <c r="H79">
@@ -4429,7 +4453,7 @@
       <c r="J79">
         <v>295.00655999999998</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="3">
         <v>3.3860000000000001E-2</v>
       </c>
       <c r="L79">
@@ -4464,7 +4488,7 @@
       <c r="F80">
         <v>0</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="3">
         <v>3.0720000000000001E-2</v>
       </c>
       <c r="H80">
@@ -4476,7 +4500,7 @@
       <c r="J80">
         <v>292.41431</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="4">
         <v>2.8240000000000001E-2</v>
       </c>
       <c r="L80">
@@ -4508,7 +4532,7 @@
       <c r="F81">
         <v>0</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="3">
         <v>2.563E-2</v>
       </c>
       <c r="H81">
@@ -4520,7 +4544,7 @@
       <c r="J81">
         <v>290.88726000000003</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="3">
         <v>2.3140000000000001E-2</v>
       </c>
       <c r="L81">
@@ -4552,7 +4576,7 @@
       <c r="F82">
         <v>0</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="3">
         <v>2.9430000000000001E-2</v>
       </c>
       <c r="H82">
@@ -4564,7 +4588,7 @@
       <c r="J82">
         <v>292.02643999999998</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="3">
         <v>2.6950000000000002E-2</v>
       </c>
       <c r="L82">
@@ -4596,7 +4620,7 @@
       <c r="F83">
         <v>0</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="3">
         <v>2.7470000000000001E-2</v>
       </c>
       <c r="H83">
@@ -4608,7 +4632,7 @@
       <c r="J83">
         <v>291.43759999999997</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="3">
         <v>2.4989999999999998E-2</v>
       </c>
       <c r="L83">
@@ -4640,7 +4664,7 @@
       <c r="F84">
         <v>0</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="3">
         <v>2.495E-2</v>
       </c>
       <c r="H84">
@@ -4652,7 +4676,7 @@
       <c r="J84">
         <v>290.68349999999998</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="3">
         <v>2.2460000000000001E-2</v>
       </c>
       <c r="L84">
@@ -4684,7 +4708,7 @@
       <c r="F85">
         <v>0</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="3">
         <v>2.563E-2</v>
       </c>
       <c r="H85">
@@ -4696,7 +4720,7 @@
       <c r="J85">
         <v>290.88531</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="3">
         <v>2.3130000000000001E-2</v>
       </c>
       <c r="L85">
@@ -4731,7 +4755,7 @@
       <c r="F86">
         <v>0</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="3">
         <v>5.9630000000000002E-2</v>
       </c>
       <c r="H86">
@@ -4743,7 +4767,7 @@
       <c r="J86">
         <v>301.71391999999997</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="L86">
@@ -4775,7 +4799,7 @@
       <c r="F87">
         <v>0</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="3">
         <v>4.8379999999999999E-2</v>
       </c>
       <c r="H87">
@@ -4787,7 +4811,7 @@
       <c r="J87">
         <v>298.14778999999999</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="3">
         <v>4.258E-2</v>
       </c>
       <c r="L87">
@@ -4819,7 +4843,7 @@
       <c r="F88">
         <v>0</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="3">
         <v>5.6599999999999998E-2</v>
       </c>
       <c r="H88">
@@ -4831,7 +4855,7 @@
       <c r="J88">
         <v>300.74745000000001</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="3">
         <v>5.0860000000000002E-2</v>
       </c>
       <c r="L88">
@@ -4863,7 +4887,7 @@
       <c r="F89">
         <v>0</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="3">
         <v>5.3580000000000003E-2</v>
       </c>
       <c r="H89">
@@ -4875,7 +4899,7 @@
       <c r="J89">
         <v>299.78706</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="3">
         <v>4.7809999999999998E-2</v>
       </c>
       <c r="L89">
@@ -4907,7 +4931,7 @@
       <c r="F90">
         <v>0</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="3">
         <v>4.8689999999999997E-2</v>
       </c>
       <c r="H90">
@@ -4919,7 +4943,7 @@
       <c r="J90">
         <v>298.24455999999998</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="3">
         <v>4.2889999999999998E-2</v>
       </c>
       <c r="L90">
@@ -4951,7 +4975,7 @@
       <c r="F91">
         <v>0</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="3">
         <v>5.1319999999999998E-2</v>
       </c>
       <c r="H91">
@@ -4963,7 +4987,7 @@
       <c r="J91">
         <v>299.07091000000003</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="3">
         <v>4.5530000000000001E-2</v>
       </c>
       <c r="L91">
@@ -4998,7 +5022,7 @@
       <c r="F92">
         <v>0</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="3">
         <v>5.2589999999999998E-2</v>
       </c>
       <c r="H92">
@@ -5010,7 +5034,7 @@
       <c r="J92">
         <v>298.71247</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="4">
         <v>4.9680000000000002E-2</v>
       </c>
       <c r="L92">
@@ -5042,7 +5066,7 @@
       <c r="F93">
         <v>0</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="3">
         <v>4.1770000000000002E-2</v>
       </c>
       <c r="H93">
@@ -5054,7 +5078,7 @@
       <c r="J93">
         <v>295.33989000000003</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="3">
         <v>3.882E-2</v>
       </c>
       <c r="L93">
@@ -5086,7 +5110,7 @@
       <c r="F94">
         <v>0</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="3">
         <v>4.9509999999999998E-2</v>
       </c>
       <c r="H94">
@@ -5098,7 +5122,7 @@
       <c r="J94">
         <v>297.74599999999998</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="3">
         <v>4.6589999999999999E-2</v>
       </c>
       <c r="L94">
@@ -5130,7 +5154,7 @@
       <c r="F95">
         <v>0</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="3">
         <v>4.6440000000000002E-2</v>
       </c>
       <c r="H95">
@@ -5142,7 +5166,7 @@
       <c r="J95">
         <v>296.78561000000002</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="3">
         <v>4.351E-2</v>
       </c>
       <c r="L95">
@@ -5174,7 +5198,7 @@
       <c r="F96">
         <v>0</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="3">
         <v>4.1869999999999997E-2</v>
       </c>
       <c r="H96">
@@ -5186,7 +5210,7 @@
       <c r="J96">
         <v>295.37214999999998</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="3">
         <v>3.8929999999999999E-2</v>
       </c>
       <c r="L96">
@@ -5218,7 +5242,7 @@
       <c r="F97">
         <v>0</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="3">
         <v>4.4080000000000001E-2</v>
       </c>
       <c r="H97">
@@ -5230,7 +5254,7 @@
       <c r="J97">
         <v>296.05520000000001</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="3">
         <v>4.1149999999999999E-2</v>
       </c>
       <c r="L97">
@@ -5265,7 +5289,7 @@
       <c r="F98">
         <v>0</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="3">
         <v>4.6710000000000002E-2</v>
       </c>
       <c r="H98">
@@ -5277,7 +5301,7 @@
       <c r="J98">
         <v>291.60761000000002</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="4">
         <v>3.6700000000000003E-2</v>
       </c>
       <c r="L98">
@@ -5309,7 +5333,7 @@
       <c r="F99">
         <v>0</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="3">
         <v>4.2090000000000002E-2</v>
       </c>
       <c r="H99">
@@ -5321,7 +5345,7 @@
       <c r="J99">
         <v>290.19909000000001</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="3">
         <v>3.202E-2</v>
       </c>
       <c r="L99">
@@ -5353,7 +5377,7 @@
       <c r="F100">
         <v>0</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="3">
         <v>4.462E-2</v>
       </c>
       <c r="H100">
@@ -5365,7 +5389,7 @@
       <c r="J100">
         <v>290.96805999999998</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="3">
         <v>3.458E-2</v>
       </c>
       <c r="L100">
@@ -5397,7 +5421,7 @@
       <c r="F101">
         <v>0</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="3">
         <v>4.2189999999999998E-2</v>
       </c>
       <c r="H101">
@@ -5409,7 +5433,7 @@
       <c r="J101">
         <v>290.23122000000001</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="3">
         <v>3.2129999999999999E-2</v>
       </c>
       <c r="L101">
@@ -5441,7 +5465,7 @@
       <c r="F102">
         <v>0</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="3">
         <v>3.9109999999999999E-2</v>
       </c>
       <c r="H102">
@@ -5453,7 +5477,7 @@
       <c r="J102">
         <v>289.29986000000002</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="3">
         <v>2.9020000000000001E-2</v>
       </c>
       <c r="L102">
@@ -5485,7 +5509,7 @@
       <c r="F103">
         <v>0</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="3">
         <v>4.0680000000000001E-2</v>
       </c>
       <c r="H103">
@@ -5497,7 +5521,7 @@
       <c r="J103">
         <v>289.77355999999997</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="3">
         <v>3.0599999999999999E-2</v>
       </c>
       <c r="L103">
@@ -5532,7 +5556,7 @@
       <c r="F104">
         <v>0</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="3">
         <v>3.6069999999999998E-2</v>
       </c>
       <c r="H104">
@@ -5544,7 +5568,7 @@
       <c r="J104">
         <v>294.68484000000001</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="4">
         <v>3.2930000000000001E-2</v>
       </c>
       <c r="L104">
@@ -5576,7 +5600,7 @@
       <c r="F105">
         <v>0</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="3">
         <v>2.8389999999999999E-2</v>
       </c>
       <c r="H105">
@@ -5588,7 +5612,7 @@
       <c r="J105">
         <v>292.35622999999998</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="3">
         <v>2.5229999999999999E-2</v>
       </c>
       <c r="L105">
@@ -5620,7 +5644,7 @@
       <c r="F106">
         <v>0</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="3">
         <v>3.4430000000000002E-2</v>
       </c>
       <c r="H106">
@@ -5632,7 +5656,7 @@
       <c r="J106">
         <v>294.18311999999997</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="3">
         <v>3.1280000000000002E-2</v>
       </c>
       <c r="L106">
@@ -5664,7 +5688,7 @@
       <c r="F107">
         <v>0</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="3">
         <v>3.1130000000000001E-2</v>
       </c>
       <c r="H107">
@@ -5676,7 +5700,7 @@
       <c r="J107">
         <v>293.18144000000001</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="3">
         <v>2.7969999999999998E-2</v>
       </c>
       <c r="L107">
@@ -5708,7 +5732,7 @@
       <c r="F108">
         <v>0</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="3">
         <v>2.8469999999999999E-2</v>
       </c>
       <c r="H108">
@@ -5720,7 +5744,7 @@
       <c r="J108">
         <v>292.37774000000002</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="3">
         <v>2.53E-2</v>
       </c>
       <c r="L108">
@@ -5752,7 +5776,7 @@
       <c r="F109">
         <v>0</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="3">
         <v>2.9479999999999999E-2</v>
       </c>
       <c r="H109">
@@ -5764,7 +5788,7 @@
       <c r="J109">
         <v>292.68259999999998</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="3">
         <v>2.631E-2</v>
       </c>
       <c r="L109">
@@ -5799,7 +5823,7 @@
       <c r="F110">
         <v>0</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="3">
         <v>4.8070000000000002E-2</v>
       </c>
       <c r="H110">
@@ -5811,7 +5835,7 @@
       <c r="J110">
         <v>297.63269000000003</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="4">
         <v>4.8070000000000002E-2</v>
       </c>
       <c r="L110">
@@ -5843,7 +5867,7 @@
       <c r="F111">
         <v>0</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="3">
         <v>3.807E-2</v>
       </c>
       <c r="H111">
@@ -5855,7 +5879,7 @@
       <c r="J111">
         <v>294.53800999999999</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="3">
         <v>3.807E-2</v>
       </c>
       <c r="L111">
@@ -5887,7 +5911,7 @@
       <c r="F112">
         <v>0</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="3">
         <v>4.6460000000000001E-2</v>
       </c>
       <c r="H112">
@@ -5899,7 +5923,7 @@
       <c r="J112">
         <v>297.13096999999999</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="3">
         <v>4.6460000000000001E-2</v>
       </c>
       <c r="L112">
@@ -5931,7 +5955,7 @@
       <c r="F113">
         <v>0</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="3">
         <v>4.3130000000000002E-2</v>
       </c>
       <c r="H113">
@@ -5943,7 +5967,7 @@
       <c r="J113">
         <v>296.09501999999998</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="3">
         <v>4.3130000000000002E-2</v>
       </c>
       <c r="L113">
@@ -5975,7 +5999,7 @@
       <c r="F114">
         <v>0</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="3">
         <v>3.8190000000000002E-2</v>
       </c>
       <c r="H114">
@@ -5987,7 +6011,7 @@
       <c r="J114">
         <v>294.57565</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="3">
         <v>3.8190000000000002E-2</v>
       </c>
       <c r="L114">
@@ -6019,7 +6043,7 @@
       <c r="F115">
         <v>0</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="3">
         <v>4.0730000000000002E-2</v>
       </c>
       <c r="H115">
@@ -6031,7 +6055,7 @@
       <c r="J115">
         <v>295.35410000000002</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="3">
         <v>4.0730000000000002E-2</v>
       </c>
       <c r="L115">
@@ -6066,7 +6090,7 @@
       <c r="F116">
         <v>0</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="3">
         <v>3.9440000000000003E-2</v>
       </c>
       <c r="H116">
@@ -6078,7 +6102,7 @@
       <c r="J116">
         <v>296.60345000000001</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="4">
         <v>3.9440000000000003E-2</v>
       </c>
       <c r="L116">
@@ -6110,7 +6134,7 @@
       <c r="F117">
         <v>0</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="3">
         <v>2.9739999999999999E-2</v>
       </c>
       <c r="H117">
@@ -6122,7 +6146,7 @@
       <c r="J117">
         <v>293.63956999999999</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="3">
         <v>2.9739999999999999E-2</v>
       </c>
       <c r="L117">
@@ -6154,7 +6178,7 @@
       <c r="F118">
         <v>0</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="3">
         <v>3.56E-2</v>
       </c>
       <c r="H118">
@@ -6166,7 +6190,7 @@
       <c r="J118">
         <v>295.4239</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="3">
         <v>3.56E-2</v>
       </c>
       <c r="L118">
@@ -6198,7 +6222,7 @@
       <c r="F119">
         <v>0</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="3">
         <v>3.3189999999999997E-2</v>
       </c>
       <c r="H119">
@@ -6210,7 +6234,7 @@
       <c r="J119">
         <v>294.68705999999997</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="3">
         <v>3.3189999999999997E-2</v>
       </c>
       <c r="L119">
@@ -6242,7 +6266,7 @@
       <c r="F120">
         <v>0</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="3">
         <v>2.981E-2</v>
       </c>
       <c r="H120">
@@ -6254,7 +6278,7 @@
       <c r="J120">
         <v>293.66108000000003</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="3">
         <v>2.981E-2</v>
       </c>
       <c r="L120">
@@ -6286,7 +6310,7 @@
       <c r="F121">
         <v>0</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="3">
         <v>3.0929999999999999E-2</v>
       </c>
       <c r="H121">
@@ -6298,7 +6322,7 @@
       <c r="J121">
         <v>294.00051000000002</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="3">
         <v>3.0929999999999999E-2</v>
       </c>
       <c r="L121">
